--- a/data/trans_orig/P36B02_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36B02_R-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>446504</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>433804</v>
+        <v>434898</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>455529</v>
+        <v>456231</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9424378928931153</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9156315552696648</v>
+        <v>0.9179394169809529</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9614864719240471</v>
+        <v>0.9629672998847223</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>289</v>
@@ -765,19 +765,19 @@
         <v>297739</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>289799</v>
+        <v>290846</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>301937</v>
+        <v>302560</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9708446880825429</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9449564604994077</v>
+        <v>0.9483711142702047</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9845337178922757</v>
+        <v>0.9865650887988755</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>718</v>
@@ -786,19 +786,19 @@
         <v>744244</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>730322</v>
+        <v>729673</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>754296</v>
+        <v>755320</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9536003385551755</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9357619321221472</v>
+        <v>0.9349303441968412</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9664802816212629</v>
+        <v>0.9677925145640777</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>27272</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18247</v>
+        <v>17545</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39972</v>
+        <v>38878</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.0575621071068847</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03851352807595299</v>
+        <v>0.03703270011527792</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.08436844473033581</v>
+        <v>0.0820605830190472</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -836,19 +836,19 @@
         <v>8941</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>4743</v>
+        <v>4120</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>16881</v>
+        <v>15834</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02915531191745715</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01546628210772425</v>
+        <v>0.01343491120112453</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05504353950059292</v>
+        <v>0.0516288857297954</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>35</v>
@@ -857,19 +857,19 @@
         <v>36213</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>26161</v>
+        <v>25137</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>50135</v>
+        <v>50784</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04639966144482459</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03351971837873717</v>
+        <v>0.03220748543592219</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.06423806787785269</v>
+        <v>0.06506965580315802</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>340321</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>328158</v>
+        <v>327884</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>349577</v>
+        <v>348345</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9274715812832236</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8943239687556098</v>
+        <v>0.893576359683412</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9526980531305881</v>
+        <v>0.9493387797938726</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>340</v>
@@ -982,19 +982,19 @@
         <v>347663</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>335522</v>
+        <v>336080</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>355922</v>
+        <v>356284</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9349167696423956</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9022690913027603</v>
+        <v>0.9037693958405288</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9571263953329856</v>
+        <v>0.9581009525305638</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>665</v>
@@ -1003,19 +1003,19 @@
         <v>687984</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>672683</v>
+        <v>671465</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>700562</v>
+        <v>700859</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9312190199611476</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9105081981493131</v>
+        <v>0.908860136872</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9482441092220806</v>
+        <v>0.9486462272994296</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>26613</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>17357</v>
+        <v>18589</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>38776</v>
+        <v>39050</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.07252841871677644</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.04730194686941162</v>
+        <v>0.05066122020612771</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1056760312443902</v>
+        <v>0.1064236403165884</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>23</v>
@@ -1053,19 +1053,19 @@
         <v>24202</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>15943</v>
+        <v>15581</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36343</v>
+        <v>35785</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06508323035760444</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04287360466701439</v>
+        <v>0.04189904746943623</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09773090869723933</v>
+        <v>0.09623060415947117</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>48</v>
@@ -1074,19 +1074,19 @@
         <v>50815</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>38237</v>
+        <v>37940</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>66116</v>
+        <v>67334</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06878098003885234</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05175589077791937</v>
+        <v>0.0513537727005703</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.089491801850687</v>
+        <v>0.09113986312800004</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>497508</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>482584</v>
+        <v>484462</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>508316</v>
+        <v>509790</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9187473138940138</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8911860912208424</v>
+        <v>0.8946549843113727</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9387063524296372</v>
+        <v>0.9414288552720209</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>149</v>
@@ -1199,19 +1199,19 @@
         <v>153111</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>144552</v>
+        <v>144105</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>158993</v>
+        <v>159430</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9125591852615709</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8615476256835151</v>
+        <v>0.8588804294322894</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.947618671852302</v>
+        <v>0.950223669814372</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>635</v>
@@ -1220,19 +1220,19 @@
         <v>650619</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>634621</v>
+        <v>634965</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>664187</v>
+        <v>664392</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9172835157503103</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8947287671040963</v>
+        <v>0.895213708142615</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9364123182625979</v>
+        <v>0.9367009592572225</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>43999</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>33191</v>
+        <v>31717</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>58923</v>
+        <v>57045</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.08125268610598624</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06129364757036278</v>
+        <v>0.0585711447279791</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1088139087791577</v>
+        <v>0.1053450156886274</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>15</v>
@@ -1270,19 +1270,19 @@
         <v>14671</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8789</v>
+        <v>8352</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23230</v>
+        <v>23677</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.08744081473842909</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05238132814769803</v>
+        <v>0.04977633018562824</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.138452374316485</v>
+        <v>0.1411195705677107</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>60</v>
@@ -1291,19 +1291,19 @@
         <v>58670</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>45102</v>
+        <v>44897</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>74668</v>
+        <v>74324</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08271648424968968</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06358768173740205</v>
+        <v>0.06329904074277744</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1052712328959034</v>
+        <v>0.104786291857385</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>1139131</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1118367</v>
+        <v>1117926</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1156224</v>
+        <v>1157244</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9198898318159188</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9031222447268924</v>
+        <v>0.9027659601622976</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9336933582724153</v>
+        <v>0.9345170094338312</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>656</v>
@@ -1416,19 +1416,19 @@
         <v>674156</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>658738</v>
+        <v>659782</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>684553</v>
+        <v>685108</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9438196886304054</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9222338750060745</v>
+        <v>0.9236959380215957</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9583749026495408</v>
+        <v>0.959151522983118</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1784</v>
@@ -1437,19 +1437,19 @@
         <v>1813288</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1790360</v>
+        <v>1788394</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1836562</v>
+        <v>1834486</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9286435821790835</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9169011542534591</v>
+        <v>0.9158944522266165</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9405628602301783</v>
+        <v>0.9394995938788357</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>99203</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>82110</v>
+        <v>81090</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>119967</v>
+        <v>120408</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.08011016818408119</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.06630664172758466</v>
+        <v>0.06548299056616876</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09687775527310752</v>
+        <v>0.0972340398377024</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>38</v>
@@ -1487,19 +1487,19 @@
         <v>40129</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>29732</v>
+        <v>29177</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>55547</v>
+        <v>54503</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05618031136959462</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04162509735045941</v>
+        <v>0.04084847701688186</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07776612499392574</v>
+        <v>0.07630406197840409</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>134</v>
@@ -1508,19 +1508,19 @@
         <v>139332</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>116058</v>
+        <v>118134</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>162260</v>
+        <v>164226</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07135641782091656</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05943713976982168</v>
+        <v>0.06050040612116426</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08309884574654096</v>
+        <v>0.08410554777338346</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>324494</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>314174</v>
+        <v>313952</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>333650</v>
+        <v>332934</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9256589115702575</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8962186394372356</v>
+        <v>0.8955867646751651</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9517759282751984</v>
+        <v>0.9497332983838188</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>509</v>
@@ -1633,19 +1633,19 @@
         <v>536416</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>523396</v>
+        <v>522801</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>546026</v>
+        <v>545971</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.945028051736712</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9220909387287891</v>
+        <v>0.9210414312816848</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9619587003048851</v>
+        <v>0.9618622843529248</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>824</v>
@@ -1654,19 +1654,19 @@
         <v>860910</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>843237</v>
+        <v>845071</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>874584</v>
+        <v>875855</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9376329934241473</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9183842627900571</v>
+        <v>0.9203822715198869</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.952525568068652</v>
+        <v>0.9539092669624726</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>26061</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>16905</v>
+        <v>17621</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>36381</v>
+        <v>36603</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07434108842974256</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04822407172480163</v>
+        <v>0.05026670161618117</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1037813605627646</v>
+        <v>0.104413235324835</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>29</v>
@@ -1704,19 +1704,19 @@
         <v>31203</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>21593</v>
+        <v>21648</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>44223</v>
+        <v>44818</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05497194826328799</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.03804129969511495</v>
+        <v>0.03813771564707522</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07790906127121114</v>
+        <v>0.07895856871831522</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>54</v>
@@ -1725,19 +1725,19 @@
         <v>57264</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>43590</v>
+        <v>42319</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>74937</v>
+        <v>73103</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06236700657585271</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.047474431931348</v>
+        <v>0.04609073303752727</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08161573720994279</v>
+        <v>0.07961772848011288</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>288229</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>280638</v>
+        <v>280314</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>292907</v>
+        <v>293148</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.966558482138158</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9411048274248569</v>
+        <v>0.9400182254877316</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9822478775084331</v>
+        <v>0.9830563566607927</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1164</v>
@@ -1850,19 +1850,19 @@
         <v>1175778</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1157831</v>
+        <v>1158679</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1190598</v>
+        <v>1190784</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9415560929617822</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9271848793953092</v>
+        <v>0.9278633232794132</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9534245561146348</v>
+        <v>0.9535732362947172</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1460</v>
@@ -1871,19 +1871,19 @@
         <v>1464005</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1445971</v>
+        <v>1444705</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1480167</v>
+        <v>1480368</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9463756903391253</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9347176898016393</v>
+        <v>0.9338994192132304</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9568227574783388</v>
+        <v>0.9569531732122114</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>9972</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5294</v>
+        <v>5053</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>17563</v>
+        <v>17887</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03344151786184205</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01775212249156683</v>
+        <v>0.01694364333920717</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05889517257514294</v>
+        <v>0.05998177451226815</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>74</v>
@@ -1921,19 +1921,19 @@
         <v>72982</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>58162</v>
+        <v>57976</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>90929</v>
+        <v>90081</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05844390703821776</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04657544388536525</v>
+        <v>0.04642676370528309</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07281512060469117</v>
+        <v>0.07213667672058707</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>84</v>
@@ -1942,19 +1942,19 @@
         <v>82955</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>66793</v>
+        <v>66592</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>100989</v>
+        <v>102255</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05362430966087472</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04317724252166073</v>
+        <v>0.04304682678778807</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06528231019836075</v>
+        <v>0.06610058078676956</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>3036188</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3004262</v>
+        <v>3006039</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3063506</v>
+        <v>3065185</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9286944645892875</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9189291735314233</v>
+        <v>0.9194726227990495</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9370503267536782</v>
+        <v>0.9375638564517939</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3107</v>
@@ -2067,19 +2067,19 @@
         <v>3184863</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3157673</v>
+        <v>3156938</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3212819</v>
+        <v>3209520</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.943106511563873</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9350547915671162</v>
+        <v>0.9348372768645213</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9513848716454216</v>
+        <v>0.9504078848135445</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6086</v>
@@ -2088,19 +2088,19 @@
         <v>6221051</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6179884</v>
+        <v>6180508</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6261621</v>
+        <v>6259587</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9360172400938189</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9298232537269181</v>
+        <v>0.9299170784228704</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9421213931440809</v>
+        <v>0.9418152858785561</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>233120</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>205802</v>
+        <v>204123</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>265046</v>
+        <v>263269</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.07130553541071247</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06294967324632189</v>
+        <v>0.06243614354820638</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.08107082646857726</v>
+        <v>0.08052737720095056</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>188</v>
@@ -2138,19 +2138,19 @@
         <v>192129</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>164173</v>
+        <v>167472</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>219319</v>
+        <v>220054</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05689348843612697</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.04861512835457846</v>
+        <v>0.04959211518645546</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06494520843288423</v>
+        <v>0.0651627231354789</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>415</v>
@@ -2159,19 +2159,19 @@
         <v>425249</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>384679</v>
+        <v>386713</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>466416</v>
+        <v>465792</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06398275990618106</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05787860685591936</v>
+        <v>0.05818471412144401</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.07017674627308196</v>
+        <v>0.07008292157712966</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>404202</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>390578</v>
+        <v>392227</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>414021</v>
+        <v>414219</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9245003216031277</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8933409572480485</v>
+        <v>0.8971116735514268</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9469596323201555</v>
+        <v>0.9474113460686252</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>267</v>
@@ -2526,19 +2526,19 @@
         <v>297810</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>288161</v>
+        <v>287499</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>304359</v>
+        <v>304379</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9498011098498272</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9190268766418156</v>
+        <v>0.916914887432124</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9706888725328865</v>
+        <v>0.970749548035848</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>640</v>
@@ -2547,19 +2547,19 @@
         <v>702012</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>685628</v>
+        <v>686168</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>713556</v>
+        <v>714610</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9350670197075525</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9132436915602082</v>
+        <v>0.9139630628028411</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9504429548754231</v>
+        <v>0.9518474463347724</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>33009</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23190</v>
+        <v>22992</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46633</v>
+        <v>44984</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07549967839687229</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0530403676798445</v>
+        <v>0.05258865393137484</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1066590427519509</v>
+        <v>0.1028883264485732</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>15</v>
@@ -2597,19 +2597,19 @@
         <v>15740</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>9191</v>
+        <v>9171</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>25389</v>
+        <v>26051</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.05019889015017279</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02931112746711355</v>
+        <v>0.02925045196415188</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08097312335818445</v>
+        <v>0.08308511256787451</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>46</v>
@@ -2618,19 +2618,19 @@
         <v>48749</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>37205</v>
+        <v>36151</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>65133</v>
+        <v>64593</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06493298029244753</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04955704512457709</v>
+        <v>0.04815255366522766</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08675630843979205</v>
+        <v>0.08603693719715876</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>397193</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>384527</v>
+        <v>383730</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>405961</v>
+        <v>405777</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9484153025975331</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9181714226133719</v>
+        <v>0.9162670500829132</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9693509039778462</v>
+        <v>0.9689110921712852</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>291</v>
@@ -2743,19 +2743,19 @@
         <v>323101</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>313369</v>
+        <v>313365</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>329456</v>
+        <v>329412</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9558897140645454</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9270958066891175</v>
+        <v>0.9270850477036854</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.974689600200366</v>
+        <v>0.9745589458713875</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>649</v>
@@ -2764,19 +2764,19 @@
         <v>720295</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>706550</v>
+        <v>705238</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>730930</v>
+        <v>731723</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9517535784124709</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9335924730370884</v>
+        <v>0.9318580152136583</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9658065667787742</v>
+        <v>0.9668539903957547</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>21604</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12836</v>
+        <v>13020</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>34270</v>
+        <v>35067</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05158469740246689</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03064909602215389</v>
+        <v>0.03108890782871471</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08182857738662809</v>
+        <v>0.08373294991708678</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -2814,19 +2814,19 @@
         <v>14910</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>8555</v>
+        <v>8599</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>24642</v>
+        <v>24646</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0441102859354546</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02531039979963405</v>
+        <v>0.02544105412861209</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07290419331088262</v>
+        <v>0.07291495229631342</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>31</v>
@@ -2835,19 +2835,19 @@
         <v>36513</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>25878</v>
+        <v>25085</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>50258</v>
+        <v>51570</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.04824642158752911</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03419343322122576</v>
+        <v>0.03314600960424516</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06640752696291163</v>
+        <v>0.06814198478634167</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>586301</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>573066</v>
+        <v>572950</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>598463</v>
+        <v>598316</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9315007447082387</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9104733918059497</v>
+        <v>0.9102903676701465</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9508242181279002</v>
+        <v>0.9505904980185604</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>229</v>
@@ -2960,19 +2960,19 @@
         <v>244827</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>235502</v>
+        <v>236697</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>250930</v>
+        <v>251007</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9449661010098575</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9089745307703144</v>
+        <v>0.9135885952556086</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9685235439966645</v>
+        <v>0.9688192653706393</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>778</v>
@@ -2981,19 +2981,19 @@
         <v>831127</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>815761</v>
+        <v>814894</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>844512</v>
+        <v>845939</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9354272183157579</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9181322910030226</v>
+        <v>0.9171566623436946</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9504921944281043</v>
+        <v>0.9520980999737052</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>43114</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>30952</v>
+        <v>31099</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>56349</v>
+        <v>56465</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06849925529176125</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04917578187209966</v>
+        <v>0.04940950198143956</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08952660819405013</v>
+        <v>0.08970963232985356</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>14</v>
@@ -3031,19 +3031,19 @@
         <v>14258</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8155</v>
+        <v>8078</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23583</v>
+        <v>22388</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05503389899014256</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.03147645600333544</v>
+        <v>0.03118073462936062</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09102546922968437</v>
+        <v>0.08641140474439107</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>56</v>
@@ -3052,19 +3052,19 @@
         <v>57373</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>43988</v>
+        <v>42561</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>72739</v>
+        <v>73606</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06457278168424206</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04950780557189571</v>
+        <v>0.0479019000262946</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08186770899697683</v>
+        <v>0.08284333765630453</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>1072509</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1052116</v>
+        <v>1051560</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1090446</v>
+        <v>1089724</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9253672719419853</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9077722460969148</v>
+        <v>0.9072926911335663</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9408438531008292</v>
+        <v>0.9402207110456017</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>661</v>
@@ -3177,19 +3177,19 @@
         <v>709615</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>691235</v>
+        <v>693191</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>723525</v>
+        <v>723466</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9279764201413547</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9039408557494604</v>
+        <v>0.9064980235551239</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9461664471953458</v>
+        <v>0.9460890859456887</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1668</v>
@@ -3198,19 +3198,19 @@
         <v>1782124</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1753855</v>
+        <v>1756346</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1804155</v>
+        <v>1805284</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9264044357993652</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9117091666003238</v>
+        <v>0.9130040337705582</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9378565957016048</v>
+        <v>0.9384436564614658</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>86500</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>68563</v>
+        <v>69285</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>106893</v>
+        <v>107449</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.07463272805801466</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.05915614689917076</v>
+        <v>0.059779288954398</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.09222775390308539</v>
+        <v>0.09270730886643334</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -3248,19 +3248,19 @@
         <v>55076</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>41166</v>
+        <v>41225</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>73456</v>
+        <v>71500</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07202357985864533</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.053833552804654</v>
+        <v>0.05391091405431115</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09605914425053963</v>
+        <v>0.0935019764448758</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>124</v>
@@ -3269,19 +3269,19 @@
         <v>141576</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>119545</v>
+        <v>118416</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>169845</v>
+        <v>167354</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0735955642006348</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06214340429839511</v>
+        <v>0.06155634353853417</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08829083339967603</v>
+        <v>0.08699596622944192</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>474562</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>460648</v>
+        <v>462800</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>485125</v>
+        <v>485304</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9294277090642845</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.9021776261162028</v>
+        <v>0.9063911793889672</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9501153261439095</v>
+        <v>0.950466684405025</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>663</v>
@@ -3394,19 +3394,19 @@
         <v>717053</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>702164</v>
+        <v>702376</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>729376</v>
+        <v>729897</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9428256941027279</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9232488479096468</v>
+        <v>0.9235272242632274</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9590287613838965</v>
+        <v>0.9597133736946548</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1115</v>
@@ -3415,19 +3415,19 @@
         <v>1191615</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1170726</v>
+        <v>1173255</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1206468</v>
+        <v>1208021</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9374439088576388</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9210103217878881</v>
+        <v>0.9230000060936763</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9491289965325362</v>
+        <v>0.950350938021834</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>36034</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>25471</v>
+        <v>25292</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>49948</v>
+        <v>47796</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07057229093571543</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04988467385609036</v>
+        <v>0.04953331559497498</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09782237388379726</v>
+        <v>0.09360882061103269</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>39</v>
@@ -3465,19 +3465,19 @@
         <v>43483</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>31160</v>
+        <v>30639</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58372</v>
+        <v>58160</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05717430589727208</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04097123861610352</v>
+        <v>0.0402866263053452</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07675115209035321</v>
+        <v>0.07647277573677243</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>74</v>
@@ -3486,19 +3486,19 @@
         <v>79517</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>64664</v>
+        <v>63111</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>100406</v>
+        <v>97877</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06255609114236117</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05087100346746361</v>
+        <v>0.04964906197816596</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07898967821211181</v>
+        <v>0.07699999390632377</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>257299</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>250151</v>
+        <v>249523</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>262022</v>
+        <v>261277</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9674063994561084</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9405313046227529</v>
+        <v>0.938167613327386</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9851620568801036</v>
+        <v>0.9823615132789939</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>984</v>
@@ -3611,19 +3611,19 @@
         <v>1045530</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1028560</v>
+        <v>1026908</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1059176</v>
+        <v>1059630</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9433401837675461</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9280289546071128</v>
+        <v>0.9265384033420376</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9556521409045091</v>
+        <v>0.9560619758391529</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1239</v>
@@ -3632,19 +3632,19 @@
         <v>1302830</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1285127</v>
+        <v>1284562</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1317464</v>
+        <v>1318029</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9479977327209731</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9351160400984515</v>
+        <v>0.9347047044490497</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.958646110071285</v>
+        <v>0.9590571040874264</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>8669</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3946</v>
+        <v>4691</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15817</v>
+        <v>16445</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03259360054389165</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01483794311989636</v>
+        <v>0.01763848672100611</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05946869537724655</v>
+        <v>0.06183238667261401</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>59</v>
@@ -3682,19 +3682,19 @@
         <v>62798</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>49152</v>
+        <v>48698</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>79768</v>
+        <v>81420</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05665981623245385</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04434785909549082</v>
+        <v>0.04393802416084719</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07197104539288722</v>
+        <v>0.07346159665796254</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>68</v>
@@ -3703,19 +3703,19 @@
         <v>71467</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>56833</v>
+        <v>56268</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>89170</v>
+        <v>89735</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05200226727902686</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04135388992871485</v>
+        <v>0.04094289591257363</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06488395990154797</v>
+        <v>0.0652952955509503</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>3192066</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3159613</v>
+        <v>3159781</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3220290</v>
+        <v>3224199</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9330808808356256</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9235945724080055</v>
+        <v>0.9236435984995027</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9413311651159146</v>
+        <v>0.9424737937245086</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3095</v>
@@ -3828,19 +3828,19 @@
         <v>3337936</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3308469</v>
+        <v>3312104</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3366832</v>
+        <v>3366758</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9418022156823573</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9334879992016902</v>
+        <v>0.9345135789108048</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9499550411620518</v>
+        <v>0.9499344115804339</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6089</v>
@@ -3849,19 +3849,19 @@
         <v>6530003</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6484812</v>
+        <v>6479544</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6571102</v>
+        <v>6568337</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9375186825451792</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9310304994008896</v>
+        <v>0.9302742234337105</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9434193027320342</v>
+        <v>0.9430223080868771</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>228930</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>200706</v>
+        <v>196797</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>261383</v>
+        <v>261215</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06691911916437444</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05866883488408534</v>
+        <v>0.05752620627549143</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07640542759199451</v>
+        <v>0.07635640150049729</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>189</v>
@@ -3899,19 +3899,19 @@
         <v>206265</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>177369</v>
+        <v>177443</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>235732</v>
+        <v>232097</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05819778431764269</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05004495883794807</v>
+        <v>0.05006558841956622</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06651200079830971</v>
+        <v>0.06548642108919528</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>399</v>
@@ -3920,19 +3920,19 @@
         <v>435195</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>394096</v>
+        <v>396861</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>480386</v>
+        <v>485654</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.06248131745482074</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.05658069726796697</v>
+        <v>0.05697769191312276</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.06896950059911056</v>
+        <v>0.06972577656628946</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>399824</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>388679</v>
+        <v>387521</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>409124</v>
+        <v>409961</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.9340972540072736</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9080610795047835</v>
+        <v>0.9053553683090475</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9558259891943444</v>
+        <v>0.9577801026802055</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>312</v>
@@ -4287,19 +4287,19 @@
         <v>325676</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>315329</v>
+        <v>313408</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>333614</v>
+        <v>333488</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9383995938838855</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9085837414661933</v>
+        <v>0.9030496271793962</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9612714436894967</v>
+        <v>0.960907638059268</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>682</v>
@@ -4308,19 +4308,19 @@
         <v>725500</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>710723</v>
+        <v>711315</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>738655</v>
+        <v>738054</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9360236799775976</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9169590681012152</v>
+        <v>0.9177233209449114</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9529965962851146</v>
+        <v>0.9522202437410834</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>28208</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18908</v>
+        <v>18071</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>39353</v>
+        <v>40511</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.06590274599272644</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04417401080565578</v>
+        <v>0.04221989731979457</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.09193892049521665</v>
+        <v>0.09464463169095276</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>20</v>
@@ -4358,19 +4358,19 @@
         <v>21379</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13441</v>
+        <v>13567</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>31726</v>
+        <v>33647</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06160040611611449</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03872855631050346</v>
+        <v>0.03909236194073204</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.09141625853380686</v>
+        <v>0.09695037282060394</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>45</v>
@@ -4379,19 +4379,19 @@
         <v>49587</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>36432</v>
+        <v>37033</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>64364</v>
+        <v>63772</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.06397632002240242</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04700340371488541</v>
+        <v>0.04777975625891655</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08304093189878486</v>
+        <v>0.08227667905508862</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>344274</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>331969</v>
+        <v>331886</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>354165</v>
+        <v>354727</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9197077988597002</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8868363414950848</v>
+        <v>0.8866133310691676</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.946131722343682</v>
+        <v>0.947630747601647</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>329</v>
@@ -4504,19 +4504,19 @@
         <v>348460</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>337661</v>
+        <v>337388</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>356305</v>
+        <v>355934</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9413071133621649</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9121370216051083</v>
+        <v>0.9113989709632599</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9625005487239865</v>
+        <v>0.9614984461582342</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>653</v>
@@ -4525,19 +4525,19 @@
         <v>692734</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>676031</v>
+        <v>677217</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>705807</v>
+        <v>704492</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9304473614026817</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9080128223723363</v>
+        <v>0.9096063037124794</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9480068099348207</v>
+        <v>0.9462397869349618</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>30056</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>20165</v>
+        <v>19603</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>42361</v>
+        <v>42444</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.08029220114029977</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05386827765631808</v>
+        <v>0.05236925239835295</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1131636585049153</v>
+        <v>0.1133866689308324</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>21</v>
@@ -4575,19 +4575,19 @@
         <v>21727</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13882</v>
+        <v>14253</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>32526</v>
+        <v>32799</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05869288663783517</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0374994512760135</v>
+        <v>0.03850155384176565</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08786297839489184</v>
+        <v>0.08860102903674007</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>48</v>
@@ -4596,19 +4596,19 @@
         <v>51783</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>38710</v>
+        <v>40025</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>68486</v>
+        <v>67300</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.06955263859731826</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.05199319006517931</v>
+        <v>0.05376021306503814</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09198717762766351</v>
+        <v>0.09039369628752053</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>469986</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>454650</v>
+        <v>454249</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>483207</v>
+        <v>483403</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9005052188777806</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8711210448837046</v>
+        <v>0.8703522089575639</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9258361320336963</v>
+        <v>0.9262120960174135</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>144</v>
@@ -4721,19 +4721,19 @@
         <v>156748</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>150023</v>
+        <v>150201</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>162041</v>
+        <v>161857</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9435665898504699</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9030819857173255</v>
+        <v>0.9041546387779179</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9754252284914616</v>
+        <v>0.9743231623899072</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>598</v>
@@ -4742,19 +4742,19 @@
         <v>626733</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>609568</v>
+        <v>609335</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>640222</v>
+        <v>639174</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9109021611172066</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8859533115124857</v>
+        <v>0.8856155636267646</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9305066482569739</v>
+        <v>0.9289839811143374</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>51928</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>38707</v>
+        <v>38511</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>67264</v>
+        <v>67665</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09949478112221939</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0741638679663037</v>
+        <v>0.07378790398258649</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1288789551162954</v>
+        <v>0.1296477910424361</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -4792,19 +4792,19 @@
         <v>9375</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4082</v>
+        <v>4266</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>16100</v>
+        <v>15922</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.05643341014953011</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02457477150853842</v>
+        <v>0.02567683761009273</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.0969180142826746</v>
+        <v>0.0958453612220822</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>57</v>
@@ -4813,19 +4813,19 @@
         <v>61303</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>47814</v>
+        <v>48862</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>78468</v>
+        <v>78701</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.08909783888279346</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0694933517430259</v>
+        <v>0.07101601888566322</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.114046688487514</v>
+        <v>0.1143844363732359</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>1043628</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1019848</v>
+        <v>1022113</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1060799</v>
+        <v>1063300</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9086445050459864</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8879398894488887</v>
+        <v>0.8899116806440474</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9235940254570663</v>
+        <v>0.9257721701581938</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>750</v>
@@ -4938,19 +4938,19 @@
         <v>777211</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>762723</v>
+        <v>762078</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>790038</v>
+        <v>789269</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9410750687989426</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9235316725957949</v>
+        <v>0.9227507411716757</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9566055795771427</v>
+        <v>0.9556744648476162</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1755</v>
@@ -4959,19 +4959,19 @@
         <v>1820840</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1794784</v>
+        <v>1794506</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1844084</v>
+        <v>1843999</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9222097421390246</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9090131371862288</v>
+        <v>0.9088723875059557</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9339825550227786</v>
+        <v>0.9339395584144881</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>104927</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>87756</v>
+        <v>85255</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>128707</v>
+        <v>126442</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09135549495401367</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07640597454293367</v>
+        <v>0.07422782984180609</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1120601105511113</v>
+        <v>0.1100883193559526</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -5009,19 +5009,19 @@
         <v>48665</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>35838</v>
+        <v>36607</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>63153</v>
+        <v>63798</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.05892493120105732</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04339442042285731</v>
+        <v>0.04432553515238379</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07646832740420502</v>
+        <v>0.07724925882832437</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>145</v>
@@ -5030,19 +5030,19 @@
         <v>153591</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>130347</v>
+        <v>130432</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>179647</v>
+        <v>179925</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.07779025786097539</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.06601744497722141</v>
+        <v>0.06606044158551209</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.09098686281377129</v>
+        <v>0.09112761249404473</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>572989</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>556564</v>
+        <v>556921</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>584678</v>
+        <v>585047</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9244535699191844</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8979536552044207</v>
+        <v>0.8985290145854979</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9433113075198724</v>
+        <v>0.9439072017076339</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>655</v>
@@ -5155,19 +5155,19 @@
         <v>691881</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>677370</v>
+        <v>676868</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>703768</v>
+        <v>703961</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9371980280657387</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9175422393275916</v>
+        <v>0.9168619781812036</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9532999432036019</v>
+        <v>0.9535615694067228</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1206</v>
@@ -5176,19 +5176,19 @@
         <v>1264870</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1246219</v>
+        <v>1245418</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1283576</v>
+        <v>1283677</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9313814944508194</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9176474850870507</v>
+        <v>0.9170580275016557</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9451554481500934</v>
+        <v>0.945229798006711</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>46825</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35136</v>
+        <v>34767</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>63250</v>
+        <v>62893</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07554643008081562</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05668869248012762</v>
+        <v>0.05609279829236623</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1020463447955793</v>
+        <v>0.1014709854145021</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>44</v>
@@ -5226,19 +5226,19 @@
         <v>46363</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34476</v>
+        <v>34283</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>60874</v>
+        <v>61376</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06280197193426126</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04670005679639769</v>
+        <v>0.04643843059327734</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08245776067240827</v>
+        <v>0.08313802181879652</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>89</v>
@@ -5247,19 +5247,19 @@
         <v>93188</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>74482</v>
+        <v>74381</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>111839</v>
+        <v>112640</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06861850554918064</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05484455184990661</v>
+        <v>0.05477020199328898</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08235251491294938</v>
+        <v>0.08294197249834441</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>268737</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>259882</v>
+        <v>258279</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>275813</v>
+        <v>275265</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.93906099671774</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9081189556271622</v>
+        <v>0.9025194977444988</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9637886345352492</v>
+        <v>0.9618735838783533</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>930</v>
@@ -5372,19 +5372,19 @@
         <v>1018121</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1000645</v>
+        <v>1000260</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1031678</v>
+        <v>1030897</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9417068540930619</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9255424984809635</v>
+        <v>0.9251868779728252</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.95424701236274</v>
+        <v>0.9535240133552346</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1184</v>
@@ -5393,19 +5393,19 @@
         <v>1286856</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1269835</v>
+        <v>1267855</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1304110</v>
+        <v>1303353</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9411530842666681</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9287040362071183</v>
+        <v>0.9272564155846152</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9537715245439037</v>
+        <v>0.953218160069214</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>17439</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10363</v>
+        <v>10911</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>26294</v>
+        <v>27897</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06093900328225998</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03621136546475086</v>
+        <v>0.03812641612164668</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.09188104437283781</v>
+        <v>0.09748050225550074</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>61</v>
@@ -5443,19 +5443,19 @@
         <v>63023</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>49466</v>
+        <v>50247</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>80499</v>
+        <v>80884</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05829314590693808</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04575298763725997</v>
+        <v>0.04647598664476529</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07445750151903656</v>
+        <v>0.07481312202717484</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>78</v>
@@ -5464,19 +5464,19 @@
         <v>80463</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>63209</v>
+        <v>63966</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>97484</v>
+        <v>99464</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05884691573333193</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04622847545609637</v>
+        <v>0.04678183993078602</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07129596379288206</v>
+        <v>0.07274358441538496</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>3099437</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3064350</v>
+        <v>3065161</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3133160</v>
+        <v>3129342</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9173135244879113</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9069289137191126</v>
+        <v>0.907169127861567</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9272942787141757</v>
+        <v>0.9261642226244822</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3120</v>
@@ -5589,19 +5589,19 @@
         <v>3318097</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3285326</v>
+        <v>3288707</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3345034</v>
+        <v>3345534</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9403360024784458</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9310489009791322</v>
+        <v>0.9320071597316417</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9479698243827491</v>
+        <v>0.9481117028551008</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6078</v>
@@ -5610,19 +5610,19 @@
         <v>6417534</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6374915</v>
+        <v>6370855</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6459403</v>
+        <v>6458741</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9290744187732286</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9229043739739082</v>
+        <v>0.9223166234824683</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9351358275571343</v>
+        <v>0.9350399439892355</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>279383</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>245660</v>
+        <v>249478</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>314470</v>
+        <v>313659</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0826864755120887</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07270572128582432</v>
+        <v>0.07383577737551783</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.09307108628088744</v>
+        <v>0.09283087213843294</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>203</v>
@@ -5660,19 +5660,19 @@
         <v>210532</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>183595</v>
+        <v>183095</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>243303</v>
+        <v>239922</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05966399752155417</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.05203017561725104</v>
+        <v>0.05188829714489893</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.06895109902086788</v>
+        <v>0.06799284026835788</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>462</v>
@@ -5681,19 +5681,19 @@
         <v>489915</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>448046</v>
+        <v>448708</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>532534</v>
+        <v>536594</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.07092558122677141</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0648641724428656</v>
+        <v>0.06496005601076421</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0770956260260915</v>
+        <v>0.07768337651753135</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>487366</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>470297</v>
+        <v>469634</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>502717</v>
+        <v>500672</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8851251938016591</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8541254147821837</v>
+        <v>0.8529208339875659</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9130050064049532</v>
+        <v>0.9092916528318571</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>595</v>
@@ -6048,19 +6048,19 @@
         <v>419975</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>404948</v>
+        <v>406550</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>433321</v>
+        <v>434284</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.859881165254332</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8291124340065326</v>
+        <v>0.8323937391082615</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8872051936201366</v>
+        <v>0.8891780392601257</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1089</v>
@@ -6069,19 +6069,19 @@
         <v>907341</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>887262</v>
+        <v>884336</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>928282</v>
+        <v>927480</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.8732588680874375</v>
+        <v>0.8732588680874374</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.853933703891095</v>
+        <v>0.8511178063785427</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8934132489908282</v>
+        <v>0.8926406737244528</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>63252</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>47901</v>
+        <v>49946</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>80321</v>
+        <v>80984</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1148748061983409</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08699499359504705</v>
+        <v>0.09070834716814288</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1458745852178163</v>
+        <v>0.1470791660124342</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>91</v>
@@ -6119,19 +6119,19 @@
         <v>68436</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>55090</v>
+        <v>54127</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>83463</v>
+        <v>81861</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.140118834745668</v>
+        <v>0.1401188347456679</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1127948063798633</v>
+        <v>0.1108219607398743</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1708875659934672</v>
+        <v>0.1676062608917383</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>151</v>
@@ -6140,19 +6140,19 @@
         <v>131688</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>110747</v>
+        <v>111549</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>151767</v>
+        <v>154693</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1267411319125626</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1065867510091719</v>
+        <v>0.1073593262755472</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1460662961089047</v>
+        <v>0.1488821936214575</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>433230</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>417703</v>
+        <v>416772</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>446220</v>
+        <v>445427</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8965622654312009</v>
+        <v>0.8965622654312008</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8644306557853506</v>
+        <v>0.8625039234272124</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9234452673732058</v>
+        <v>0.9218040660034531</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>506</v>
@@ -6265,19 +6265,19 @@
         <v>362658</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>348574</v>
+        <v>349139</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>373800</v>
+        <v>374036</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8570578288673671</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8237726973296887</v>
+        <v>0.8251076082363006</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8833882782688532</v>
+        <v>0.8839462130403403</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>940</v>
@@ -6286,19 +6286,19 @@
         <v>795888</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>773137</v>
+        <v>774582</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>814586</v>
+        <v>813743</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8781191388209024</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8530182158886532</v>
+        <v>0.8546116990589723</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8987488921376927</v>
+        <v>0.8978191745704405</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>49982</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>36992</v>
+        <v>37785</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>65509</v>
+        <v>66440</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1034377345687992</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07655473262679414</v>
+        <v>0.07819593399654688</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1355693442146494</v>
+        <v>0.1374960765727873</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>84</v>
@@ -6336,19 +6336,19 @@
         <v>60485</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>49343</v>
+        <v>49107</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>74569</v>
+        <v>74004</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1429421711326327</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1166117217311468</v>
+        <v>0.1160537869596597</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1762273026703113</v>
+        <v>0.1748923917636994</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>131</v>
@@ -6357,19 +6357,19 @@
         <v>110467</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>91769</v>
+        <v>92612</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>133218</v>
+        <v>131773</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1218808611790976</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1012511078623074</v>
+        <v>0.1021808254295593</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1469817841113469</v>
+        <v>0.1453883009410272</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>410913</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>395009</v>
+        <v>394089</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>424850</v>
+        <v>425479</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.871294574402438</v>
+        <v>0.8712945744024378</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8375720526368211</v>
+        <v>0.8356210538035364</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9008456633212319</v>
+        <v>0.9021812034241775</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>255</v>
@@ -6482,19 +6482,19 @@
         <v>164135</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>154883</v>
+        <v>155176</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>170342</v>
+        <v>170611</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.8754010328446671</v>
+        <v>0.8754010328446674</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8260535006678511</v>
+        <v>0.8276205185413724</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.908505955543113</v>
+        <v>0.9099421801537627</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>685</v>
@@ -6503,19 +6503,19 @@
         <v>575048</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>557511</v>
+        <v>556899</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>591637</v>
+        <v>590753</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8724627420479918</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8458557961083197</v>
+        <v>0.8449272723481804</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8976319716261605</v>
+        <v>0.8962895686636658</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>60699</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>46762</v>
+        <v>46133</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>76603</v>
+        <v>77523</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1287054255975621</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09915433667876808</v>
+        <v>0.09781879657582211</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1624279473631794</v>
+        <v>0.1643789461964636</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>34</v>
@@ -6553,19 +6553,19 @@
         <v>23362</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>17155</v>
+        <v>16886</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>32614</v>
+        <v>32321</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1245989671553327</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09149404445688691</v>
+        <v>0.0900578198462381</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1739464993321488</v>
+        <v>0.1723794814586287</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>92</v>
@@ -6574,19 +6574,19 @@
         <v>84061</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>67472</v>
+        <v>68356</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>101598</v>
+        <v>102210</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1275372579520083</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1023680283738397</v>
+        <v>0.1037104313363343</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1541442038916805</v>
+        <v>0.1550727276518196</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>986924</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>959448</v>
+        <v>960931</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1009490</v>
+        <v>1010557</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.8719615232037268</v>
+        <v>0.8719615232037269</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.8476863425587611</v>
+        <v>0.8489971366574424</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8918996790940737</v>
+        <v>0.8928419849252058</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1120</v>
@@ -6699,19 +6699,19 @@
         <v>777689</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>759252</v>
+        <v>759242</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>791983</v>
+        <v>791940</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9030185322895992</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8816092634924546</v>
+        <v>0.8815981937761048</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9196152115553332</v>
+        <v>0.9195651142809029</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>2106</v>
@@ -6720,19 +6720,19 @@
         <v>1764613</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1733286</v>
+        <v>1733538</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1792714</v>
+        <v>1791851</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.8853814546983386</v>
+        <v>0.8853814546983388</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.869663490965063</v>
+        <v>0.8697898923008236</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.899480821525924</v>
+        <v>0.8990477875050612</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>144919</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>122353</v>
+        <v>121286</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>172395</v>
+        <v>170912</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1280384767962731</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.108100320905926</v>
+        <v>0.1071580150747943</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1523136574412387</v>
+        <v>0.1510028633425578</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>110</v>
@@ -6770,19 +6770,19 @@
         <v>83522</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>69228</v>
+        <v>69271</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>101959</v>
+        <v>101969</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09698146771040089</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.08038478844466684</v>
+        <v>0.08043488571909747</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1183907365075454</v>
+        <v>0.1184018062238957</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>242</v>
@@ -6791,19 +6791,19 @@
         <v>228441</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>200340</v>
+        <v>201203</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>259768</v>
+        <v>259516</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.1146185453016612</v>
+        <v>0.1146185453016613</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1005191784740761</v>
+        <v>0.1009522124949388</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.130336509034937</v>
+        <v>0.1302101076991762</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>484315</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>466844</v>
+        <v>463008</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>502611</v>
+        <v>503208</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.8527217752881036</v>
+        <v>0.8527217752881033</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.8219604174153995</v>
+        <v>0.8152057184084199</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8849342090756339</v>
+        <v>0.8859860788372557</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1172</v>
@@ -6916,19 +6916,19 @@
         <v>751877</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>734980</v>
+        <v>735694</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>764164</v>
+        <v>764291</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9049486866991386</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8846120754278559</v>
+        <v>0.885471812297435</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9197378772521816</v>
+        <v>0.9198907855993947</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1643</v>
@@ -6937,19 +6937,19 @@
         <v>1236192</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1209414</v>
+        <v>1208533</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1258542</v>
+        <v>1258078</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.8837428705743993</v>
+        <v>0.8837428705743992</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8645992639856748</v>
+        <v>0.8639700393915392</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8997210413620117</v>
+        <v>0.8993891183571002</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>83649</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>65353</v>
+        <v>64756</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>101120</v>
+        <v>104956</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1472782247118966</v>
+        <v>0.1472782247118965</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.115065790924366</v>
+        <v>0.1140139211627442</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1780395825846006</v>
+        <v>0.1847942815915797</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>118</v>
@@ -6987,19 +6987,19 @@
         <v>78973</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>66686</v>
+        <v>66559</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>95870</v>
+        <v>95156</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.09505131330086136</v>
+        <v>0.09505131330086135</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.08026212274781835</v>
+        <v>0.08010921440060532</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.115387924572144</v>
+        <v>0.114528187702565</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>194</v>
@@ -7008,19 +7008,19 @@
         <v>162622</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>140272</v>
+        <v>140736</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>189400</v>
+        <v>190281</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1162571294256007</v>
+        <v>0.1162571294256006</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1002789586379886</v>
+        <v>0.1006108816428998</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1354007360143253</v>
+        <v>0.1360299606084608</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>206605</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>186980</v>
+        <v>189032</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>219845</v>
+        <v>219073</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.8709145913058532</v>
+        <v>0.8709145913058531</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.7881860075794168</v>
+        <v>0.7968388854280194</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9267238038480512</v>
+        <v>0.9234721289508662</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1041</v>
@@ -7133,19 +7133,19 @@
         <v>753044</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>733865</v>
+        <v>734588</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>769519</v>
+        <v>769308</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8919349309306013</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8692185575373996</v>
+        <v>0.8700755043923781</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9114490148384436</v>
+        <v>0.911199261000376</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1139</v>
@@ -7154,19 +7154,19 @@
         <v>959649</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>932934</v>
+        <v>933308</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>981156</v>
+        <v>981373</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.8873241426255029</v>
+        <v>0.887324142625503</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8626226640743054</v>
+        <v>0.8629678736053593</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9072104094111378</v>
+        <v>0.9074104830737036</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>30623</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17383</v>
+        <v>18155</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>50248</v>
+        <v>48196</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1290854086941467</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07327619615194904</v>
+        <v>0.07652787104913375</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2118139924205829</v>
+        <v>0.2031611145719806</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>118</v>
@@ -7204,19 +7204,19 @@
         <v>91237</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>74762</v>
+        <v>74973</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>110416</v>
+        <v>109693</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1080650690693988</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08855098516155459</v>
+        <v>0.08880073899962428</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1307814424626002</v>
+        <v>0.1299244956076222</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>132</v>
@@ -7225,19 +7225,19 @@
         <v>121860</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>100353</v>
+        <v>100136</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>148575</v>
+        <v>148201</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1126758573744971</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.09278959058886176</v>
+        <v>0.09258951692629638</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1373773359256946</v>
+        <v>0.1370321263946407</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>3009352</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2962218</v>
+        <v>2962928</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>3049746</v>
+        <v>3049409</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.8741823524321777</v>
+        <v>0.8741823524321776</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8604906211438522</v>
+        <v>0.8606969015627309</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8859164684969317</v>
+        <v>0.8858184052897227</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4689</v>
@@ -7350,19 +7350,19 @@
         <v>3229378</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3193372</v>
+        <v>3196252</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3260976</v>
+        <v>3263014</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8883161604982268</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8784117211105456</v>
+        <v>0.8792041140074398</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.897007735330975</v>
+        <v>0.8975683000957231</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7602</v>
@@ -7371,19 +7371,19 @@
         <v>6238730</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>6179975</v>
+        <v>6177436</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6296237</v>
+        <v>6288709</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8814418747788879</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8731406809706951</v>
+        <v>0.8727819242275476</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8895666934877737</v>
+        <v>0.8885031887865362</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>433124</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>392730</v>
+        <v>393067</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>480258</v>
+        <v>479548</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1258176475678225</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1140835315030682</v>
+        <v>0.1141815947102773</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1395093788561477</v>
+        <v>0.1393030984372689</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>555</v>
@@ -7421,19 +7421,19 @@
         <v>406015</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>374417</v>
+        <v>372379</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>442021</v>
+        <v>439141</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.1116838395017733</v>
+        <v>0.1116838395017734</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1029922646690251</v>
+        <v>0.1024316999042768</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1215882788894545</v>
+        <v>0.1207958859925602</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>942</v>
@@ -7442,19 +7442,19 @@
         <v>839139</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>781632</v>
+        <v>789160</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>897894</v>
+        <v>900433</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.118558125221112</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1104333065122263</v>
+        <v>0.1114968112134638</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1268593190293048</v>
+        <v>0.1272180757724523</v>
       </c>
     </row>
     <row r="24">
